--- a/examples/wangetal2018/out/ResultFiles/PL_0.2_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_0.2_a.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="182">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -303,6 +309,9 @@
     <t>X42</t>
   </si>
   <si>
+    <t>S 10</t>
+  </si>
+  <si>
     <t>S 40S</t>
   </si>
   <si>
@@ -390,87 +399,96 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
-    <t>PI01_pre_loop_cxn</t>
+    <t>PI01</t>
+  </si>
+  <si>
+    <t>PI02_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_0_loop</t>
   </si>
   <si>
-    <t>PI01_post_loop_cxn</t>
-  </si>
-  <si>
-    <t>PI02</t>
+    <t>PI02_post_loop_cxn</t>
   </si>
   <si>
     <t>PI03</t>
   </si>
   <si>
-    <t>PI04_pre_loop_cxn</t>
+    <t>PI04</t>
+  </si>
+  <si>
+    <t>PI05_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_1_loop</t>
   </si>
   <si>
-    <t>PI04_post_loop_cxn</t>
-  </si>
-  <si>
-    <t>PI05</t>
-  </si>
-  <si>
-    <t>PI06_pre_loop_cxn</t>
+    <t>PI05_post_loop_cxn</t>
+  </si>
+  <si>
+    <t>PI06</t>
+  </si>
+  <si>
+    <t>PI07_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_2_loop</t>
   </si>
   <si>
-    <t>PI06_post_loop_cxn</t>
-  </si>
-  <si>
-    <t>PI07</t>
+    <t>PI07_post_loop_cxn</t>
   </si>
   <si>
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09</t>
+    <t>PI09_pre_loop_cxn</t>
+  </si>
+  <si>
+    <t>PS_3_loop</t>
+  </si>
+  <si>
+    <t>PI09_post_loop_cxn</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N02</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_0</t>
   </si>
   <si>
-    <t>N02</t>
-  </si>
-  <si>
     <t>N03_C</t>
   </si>
   <si>
     <t>N04</t>
   </si>
   <si>
+    <t>N05</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
-    <t>N05</t>
-  </si>
-  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N07</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_2</t>
   </si>
   <si>
-    <t>N07</t>
-  </si>
-  <si>
     <t>N08_C</t>
   </si>
   <si>
     <t>N09</t>
   </si>
   <si>
+    <t>loop_cxn_node_ps_3</t>
+  </si>
+  <si>
     <t>N03</t>
   </si>
   <si>
@@ -513,7 +531,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1152,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1174,10 +1192,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.2246652198235684</v>
+        <v>0.3479200756567323</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1185,10 +1203,10 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.03263595949073347</v>
+        <v>0.1491082371063936</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1199,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1207,10 +1225,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03095068963745481</v>
+        <v>0.03073762260129964</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1221,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1229,10 +1247,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006395757023136514</v>
+        <v>0.006351728117517583</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1240,10 +1258,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01743760108588479</v>
+        <v>0.02793793441703857</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1254,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1262,10 +1280,10 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.0203068116551406</v>
+        <v>0.03138110736875317</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1273,10 +1291,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.09042932796225607</v>
+        <v>0.03693978983200192</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1287,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1298,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1309,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1317,10 +1335,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.002576433028007825</v>
+        <v>0.00700561195340843</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1328,10 +1346,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.02304610324344431</v>
+        <v>0.05748691593938964</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1339,10 +1357,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.0008865366975101566</v>
+        <v>0.000971128320929773</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1353,7 +1371,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1364,7 +1382,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1375,7 +1393,7 @@
         <v>9.271350212696891</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1386,7 +1404,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1397,7 +1415,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1405,10 +1423,10 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>77.30162575710852</v>
+        <v>337.5975027262625</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1416,10 +1434,10 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>48.03298849832028</v>
+        <v>209.7732978665205</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1438,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1446,10 +1464,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>5146.183278417927</v>
+        <v>2102.182256856597</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1457,10 +1475,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>214.4243032674136</v>
+        <v>87.59092736902488</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1471,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1479,10 +1497,10 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>53511317.74112789</v>
+        <v>246178971.1791994</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1493,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1504,7 +1522,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1515,7 +1533,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1523,208 +1541,297 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>28591438</v>
+        <v>46125768</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>7.406825856025969</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
+      <c r="G46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>700</v>
+      </c>
+      <c r="B47">
+        <v>66.8708206701382</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47">
+        <v>20195272.59283173</v>
+      </c>
+      <c r="F47">
+        <v>17443986.94438897</v>
+      </c>
+      <c r="G47">
+        <v>7576670.372483029</v>
+      </c>
+      <c r="H47">
+        <v>1266677.929279039</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>800</v>
+      </c>
+      <c r="B48">
+        <v>125.9227254975962</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48">
+        <v>52206186.01007509</v>
+      </c>
+      <c r="F48">
+        <v>36602868.61380249</v>
+      </c>
+      <c r="G48">
+        <v>15902021.48242655</v>
+      </c>
+      <c r="H48">
+        <v>2637100.323676525</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
         <v>650</v>
       </c>
-      <c r="B46">
-        <v>77.30162575710852</v>
-      </c>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46">
-        <v>25968078.72195988</v>
-      </c>
-      <c r="F46">
-        <v>18212495.64150724</v>
-      </c>
-      <c r="G46">
-        <v>7940790.720797267</v>
-      </c>
-      <c r="H46">
-        <v>1389952.656863511</v>
+      <c r="B49">
+        <v>87.53571122460042</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49">
+        <v>24526581.90354004</v>
+      </c>
+      <c r="F49">
+        <v>20408924.58575348</v>
+      </c>
+      <c r="G49">
+        <v>8907284.081675047</v>
+      </c>
+      <c r="H49">
+        <v>1575401.883425926</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" t="s">
+      <c r="A50">
+        <v>650</v>
+      </c>
+      <c r="B50">
+        <v>57.26824533392769</v>
+      </c>
+      <c r="C50" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="2" t="s">
+      <c r="D50" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52">
-        <v>8.505302098841295</v>
-      </c>
-      <c r="C52">
-        <v>12.5</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G52">
-        <v>81.29182440545858</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53">
-        <v>6.964118287593283</v>
-      </c>
-      <c r="C53">
-        <v>12.5</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G53">
-        <v>66.56152531619087</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="E50">
+        <v>16045957.58696326</v>
+      </c>
+      <c r="F50">
+        <v>13837656.35485853</v>
+      </c>
+      <c r="G50">
+        <v>6018901.52776124</v>
+      </c>
+      <c r="H50">
+        <v>1027478.986258462</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B54">
-        <v>6.965104732926064</v>
-      </c>
-      <c r="C54">
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56">
+        <v>3.061518067571573</v>
+      </c>
+      <c r="C56">
         <v>12.5</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <v>16916025.69007904</v>
       </c>
-      <c r="G54">
-        <v>66.57095354576414</v>
-      </c>
-      <c r="H54">
+      <c r="G56">
+        <v>29.26132267507258</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57">
+        <v>2.397457502760974</v>
+      </c>
+      <c r="C57">
+        <v>12.5</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G57">
+        <v>22.91437647588619</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58">
+        <v>3.705381409472157</v>
+      </c>
+      <c r="C58">
+        <v>12.5</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G58">
+        <v>35.41522821806612</v>
+      </c>
+      <c r="H58">
         <v>0</v>
       </c>
     </row>
@@ -1735,7 +1842,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1743,58 +1850,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1802,55 +1909,55 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F2">
-        <v>55.9403789668436</v>
+        <v>49.79542398988663</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L2">
-        <v>10.58156556103749</v>
+        <v>40</v>
       </c>
       <c r="M2">
-        <v>6.575077974227426</v>
+        <v>24.85484</v>
       </c>
       <c r="N2">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O2">
-        <v>6016765.879471692</v>
+        <v>4457409.981229763</v>
       </c>
       <c r="P2">
-        <v>4.809213676550614</v>
+        <v>5.824729036239187</v>
       </c>
       <c r="Q2">
-        <v>0.009724191184238827</v>
+        <v>0.01188201222172833</v>
       </c>
       <c r="R2">
-        <v>20.3300488257097</v>
+        <v>23.71411452614107</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1858,55 +1965,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F3">
-        <v>55.9403789668436</v>
+        <v>49.79542242360598</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K3">
-        <v>6.12511734325328</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L3">
-        <v>10.58156556103749</v>
+        <v>26.8708206701382</v>
       </c>
       <c r="M3">
-        <v>6.575077974227426</v>
+        <v>16.69674871062444</v>
       </c>
       <c r="N3">
-        <v>6082278.702557526</v>
+        <v>4457409.981229763</v>
       </c>
       <c r="O3">
-        <v>6016765.879471692</v>
+        <v>4271878.152297823</v>
       </c>
       <c r="P3">
-        <v>4.809213676550614</v>
+        <v>6.082542248406922</v>
       </c>
       <c r="Q3">
-        <v>0.009724191184238827</v>
+        <v>0.01242216835655878</v>
       </c>
       <c r="R3">
-        <v>20.3300488257097</v>
+        <v>24.23324653198549</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1914,55 +2021,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F4">
-        <v>111.8809200705996</v>
+        <v>61.44605116325074</v>
       </c>
       <c r="G4">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I4">
-        <v>9.525</v>
+        <v>7.925</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K4">
-        <v>6.082278702557526</v>
+        <v>4.732210080904904</v>
       </c>
       <c r="L4">
-        <v>29.41843443896251</v>
+        <v>66.8708206701382</v>
       </c>
       <c r="M4">
-        <v>18.27976202577257</v>
+        <v>41.55158871062444</v>
       </c>
       <c r="N4">
-        <v>6016765.879471692</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O4">
-        <v>5257430.61521326</v>
+        <v>4271878.152297823</v>
       </c>
       <c r="P4">
-        <v>11.05239803248348</v>
+        <v>6.385177673738397</v>
       </c>
       <c r="Q4">
-        <v>0.02244107884618621</v>
+        <v>0.01304023035277607</v>
       </c>
       <c r="R4">
-        <v>21.79282593319089</v>
+        <v>24.23324653198549</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1970,55 +2077,55 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F5">
-        <v>111.8809151998308</v>
+        <v>111.2417201758497</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>3.129179329861799</v>
       </c>
       <c r="M5">
-        <v>18.64113</v>
+        <v>1.944381289375556</v>
       </c>
       <c r="N5">
-        <v>5257430.61521326</v>
+        <v>4271878.152297823</v>
       </c>
       <c r="O5">
-        <v>4344333.214298729</v>
+        <v>4164397.90710475</v>
       </c>
       <c r="P5">
-        <v>13.43436273966364</v>
+        <v>13.9450560331118</v>
       </c>
       <c r="Q5">
-        <v>0.02742415629600955</v>
+        <v>0.02849885847546065</v>
       </c>
       <c r="R5">
-        <v>24.02666112532448</v>
+        <v>24.54929907683486</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2026,34 +2133,34 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F6">
-        <v>59.69517732575531</v>
+        <v>49.30779040696949</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L6">
         <v>31.5</v>
@@ -2062,19 +2169,19 @@
         <v>19.5731865</v>
       </c>
       <c r="N6">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O6">
-        <v>5857952.312796851</v>
+        <v>4518451.182610464</v>
       </c>
       <c r="P6">
-        <v>5.275631445004993</v>
+        <v>5.688160770263159</v>
       </c>
       <c r="Q6">
-        <v>0.01067641635933615</v>
+        <v>0.01159912044193553</v>
       </c>
       <c r="R6">
-        <v>20.61263247737129</v>
+        <v>23.5501693609618</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2082,55 +2189,55 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F7">
-        <v>39.90952529602183</v>
+        <v>29.52213853976289</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L7">
-        <v>25.3560209955128</v>
+        <v>48.5</v>
       </c>
       <c r="M7">
-        <v>15.75549612200278</v>
+        <v>30.1364935</v>
       </c>
       <c r="N7">
-        <v>5857952.312796851</v>
+        <v>4518451.182610464</v>
       </c>
       <c r="O7">
-        <v>5772953.210870688</v>
+        <v>4398956.244914739</v>
       </c>
       <c r="P7">
-        <v>3.580622875660666</v>
+        <v>3.500050342778986</v>
       </c>
       <c r="Q7">
-        <v>0.00724952875420984</v>
+        <v>0.007142397977698663</v>
       </c>
       <c r="R7">
-        <v>20.76858305683656</v>
+        <v>23.87421629112815</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2138,55 +2245,55 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F8">
-        <v>51.77546133021836</v>
+        <v>29.52213853764475</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>6.12511734325328</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L8">
-        <v>56.8560209955128</v>
+        <v>45.92272549759625</v>
       </c>
       <c r="M8">
-        <v>35.32868262200279</v>
+        <v>28.53504986516688</v>
       </c>
       <c r="N8">
-        <v>6082278.702557526</v>
+        <v>4398956.244914739</v>
       </c>
       <c r="O8">
-        <v>5772953.210870688</v>
+        <v>4282678.906631011</v>
       </c>
       <c r="P8">
-        <v>4.645216880853948</v>
+        <v>3.596856800803474</v>
       </c>
       <c r="Q8">
-        <v>0.009404965146204652</v>
+        <v>0.007345241192897816</v>
       </c>
       <c r="R8">
-        <v>20.76858305683656</v>
+        <v>24.20212792764721</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2194,55 +2301,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F9">
-        <v>91.68499146143395</v>
+        <v>61.78583689792924</v>
       </c>
       <c r="G9">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K9">
-        <v>6.082278702557526</v>
+        <v>4.97665784139329</v>
       </c>
       <c r="L9">
-        <v>23.1439790044872</v>
+        <v>125.9227254975962</v>
       </c>
       <c r="M9">
-        <v>14.38099737799722</v>
+        <v>78.24472986516685</v>
       </c>
       <c r="N9">
-        <v>5772953.210870688</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O9">
-        <v>5363570.429021265</v>
+        <v>4282678.906631011</v>
       </c>
       <c r="P9">
-        <v>8.873033221680735</v>
+        <v>4.914586685535901</v>
       </c>
       <c r="Q9">
-        <v>0.01800534052620262</v>
+        <v>0.01003621399678786</v>
       </c>
       <c r="R9">
-        <v>21.57012986898983</v>
+        <v>24.20212792764721</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2250,55 +2357,55 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F10">
-        <v>91.68499137854828</v>
+        <v>91.30798249410809</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>4.077274502403753</v>
       </c>
       <c r="M10">
-        <v>31.06855</v>
+        <v>2.533500134833123</v>
       </c>
       <c r="N10">
-        <v>5363570.429021265</v>
+        <v>4282678.906631011</v>
       </c>
       <c r="O10">
-        <v>4345512.913914872</v>
+        <v>4188008.690650884</v>
       </c>
       <c r="P10">
-        <v>11.00609745118598</v>
+        <v>11.38044778710803</v>
       </c>
       <c r="Q10">
-        <v>0.02246706717088621</v>
+        <v>0.02325419597496713</v>
       </c>
       <c r="R10">
-        <v>24.02333921686919</v>
+        <v>24.47885725914119</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2306,55 +2413,55 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F11">
-        <v>45.67475553798222</v>
+        <v>45.30090438680268</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L11">
-        <v>9.864039200558242</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>6.129227902090076</v>
+        <v>31.06855</v>
       </c>
       <c r="N11">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O11">
-        <v>6041152.733666961</v>
+        <v>4446407.057416398</v>
       </c>
       <c r="P11">
-        <v>3.910274843746124</v>
+        <v>5.312310278010019</v>
       </c>
       <c r="Q11">
-        <v>0.007905509815543327</v>
+        <v>0.01083744418797339</v>
       </c>
       <c r="R11">
-        <v>20.28763474762725</v>
+        <v>23.74401576361475</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2362,55 +2469,55 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F12">
-        <v>45.67475553798222</v>
+        <v>45.30090438674951</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>6.12511734325328</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L12">
-        <v>9.864039200558242</v>
+        <v>37.53571122460042</v>
       </c>
       <c r="M12">
-        <v>6.129227902090076</v>
+        <v>23.32360241934119</v>
       </c>
       <c r="N12">
-        <v>6082278.702557526</v>
+        <v>4446407.057416398</v>
       </c>
       <c r="O12">
-        <v>6041152.733666961</v>
+        <v>4229286.658069011</v>
       </c>
       <c r="P12">
-        <v>3.910274843746124</v>
+        <v>5.590179978395009</v>
       </c>
       <c r="Q12">
-        <v>0.007905509815543327</v>
+        <v>0.01141969057735685</v>
       </c>
       <c r="R12">
-        <v>20.28763474762725</v>
+        <v>24.35708718095033</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2418,55 +2525,55 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F13">
-        <v>91.34951113630171</v>
+        <v>45.89158172100197</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I13">
-        <v>9.525</v>
+        <v>7.925</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K13">
-        <v>6.082278702557526</v>
+        <v>5.096226240974513</v>
       </c>
       <c r="L13">
-        <v>40.13596079944176</v>
+        <v>87.53571122460042</v>
       </c>
       <c r="M13">
-        <v>24.93932209790993</v>
+        <v>54.39215241934119</v>
       </c>
       <c r="N13">
-        <v>6041152.733666961</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O13">
-        <v>5352706.861359474</v>
+        <v>4229286.658069011</v>
       </c>
       <c r="P13">
-        <v>8.859011895614536</v>
+        <v>5.606978842114998</v>
       </c>
       <c r="Q13">
-        <v>0.01797797736645899</v>
+        <v>0.01145400750927583</v>
       </c>
       <c r="R13">
-        <v>21.59262385894706</v>
+        <v>24.35708718095033</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2474,55 +2581,55 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F14">
-        <v>91.34951115097486</v>
+        <v>91.19248617503257</v>
       </c>
       <c r="G14">
         <v>650</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>9.525</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>12.46428877539958</v>
       </c>
       <c r="M14">
-        <v>31.06855</v>
+        <v>7.744947580658813</v>
       </c>
       <c r="N14">
-        <v>5352706.861359474</v>
+        <v>4229286.658069011</v>
       </c>
       <c r="O14">
-        <v>4340207.53594774</v>
+        <v>3929375.800333011</v>
       </c>
       <c r="P14">
-        <v>10.97947437611115</v>
+        <v>12.12577856908632</v>
       </c>
       <c r="Q14">
-        <v>0.02241345784164286</v>
+        <v>0.02481880500729614</v>
       </c>
       <c r="R14">
-        <v>24.03828896381454</v>
+        <v>25.28373208241372</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2530,34 +2637,34 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F15">
-        <v>91.01399329950169</v>
+        <v>45.21227947767073</v>
       </c>
       <c r="G15">
         <v>650</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I15">
         <v>9.525</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L15">
         <v>50</v>
@@ -2566,19 +2673,19 @@
         <v>31.06855</v>
       </c>
       <c r="N15">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O15">
-        <v>5224030.537801768</v>
+        <v>4447474.095516765</v>
       </c>
       <c r="P15">
-        <v>9.049960424544897</v>
+        <v>5.300620447611549</v>
       </c>
       <c r="Q15">
-        <v>0.01837873035649554</v>
+        <v>0.01081352571484221</v>
       </c>
       <c r="R15">
-        <v>21.86427830353609</v>
+        <v>23.74111127673228</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2586,55 +2693,167 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F16">
-        <v>91.01399329655185</v>
+        <v>45.21227947767173</v>
       </c>
       <c r="G16">
         <v>650</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I16">
         <v>9.525</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>7.268245333927688</v>
       </c>
       <c r="M16">
-        <v>31.06855</v>
+        <v>4.516276871387981</v>
       </c>
       <c r="N16">
-        <v>5224030.537801768</v>
+        <v>4447474.095516765</v>
       </c>
       <c r="O16">
-        <v>4188132.461862295</v>
+        <v>4406449.542255664</v>
       </c>
       <c r="P16">
-        <v>11.34346192400406</v>
+        <v>5.350933388260515</v>
       </c>
       <c r="Q16">
-        <v>0.0231786028354383</v>
+        <v>0.01091891026930112</v>
       </c>
       <c r="R16">
-        <v>24.47848951945736</v>
+        <v>23.85351925096084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17">
+        <v>45.80171382123859</v>
+      </c>
+      <c r="G17">
+        <v>650</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17">
+        <v>7.925</v>
+      </c>
+      <c r="J17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L17">
+        <v>57.26824533392769</v>
+      </c>
+      <c r="M17">
+        <v>35.58482687138798</v>
+      </c>
+      <c r="N17">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O17">
+        <v>4406449.542255664</v>
+      </c>
+      <c r="P17">
+        <v>5.367003057043978</v>
+      </c>
+      <c r="Q17">
+        <v>0.01095170142156793</v>
+      </c>
+      <c r="R17">
+        <v>23.85351925096084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18">
+        <v>91.01399327814131</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L18">
+        <v>42.73175466607231</v>
+      </c>
+      <c r="M18">
+        <v>26.55227312861202</v>
+      </c>
+      <c r="N18">
+        <v>4406449.542255664</v>
+      </c>
+      <c r="O18">
+        <v>3325034.685785423</v>
+      </c>
+      <c r="P18">
+        <v>14.32297760174873</v>
+      </c>
+      <c r="Q18">
+        <v>0.02944247304905622</v>
+      </c>
+      <c r="R18">
+        <v>27.5060648964374</v>
       </c>
     </row>
   </sheetData>
@@ -2652,72 +2871,72 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2726,16 +2945,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.400048845824857</v>
+        <v>1.133380713964017</v>
       </c>
       <c r="I2">
-        <v>81.29182440545858</v>
+        <v>29.26132267507258</v>
       </c>
       <c r="J2">
-        <v>8.505302098841295</v>
+        <v>3.061518067571573</v>
       </c>
       <c r="K2">
-        <v>11405.78022058815</v>
+        <v>4105.55695897483</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2761,16 +2980,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2779,16 +2998,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.399668767081859</v>
+        <v>1.126991040806818</v>
       </c>
       <c r="I3">
-        <v>66.56152531619087</v>
+        <v>22.91437647588619</v>
       </c>
       <c r="J3">
-        <v>6.964118287593283</v>
+        <v>2.397457502760974</v>
       </c>
       <c r="K3">
-        <v>9339.021906028343</v>
+        <v>3215.038460352521</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2814,16 +3033,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F4">
         <v>300</v>
@@ -2832,16 +3051,16 @@
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.401379692602506</v>
+        <v>1.201169985518982</v>
       </c>
       <c r="I4">
-        <v>66.57095354576414</v>
+        <v>35.41522821806612</v>
       </c>
       <c r="J4">
-        <v>6.965104732926064</v>
+        <v>3.705381409472157</v>
       </c>
       <c r="K4">
-        <v>9340.34474894851</v>
+        <v>4968.990577730351</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2872,7 +3091,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2880,138 +3099,146 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B2">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B3">
-        <v>6016765.879471692</v>
+        <v>4457409.981229763</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B4">
-        <v>5257430.61521326</v>
+        <v>4271878.152297823</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B5">
-        <v>4344333.214298729</v>
+        <v>4164397.90710475</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B6">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B7">
-        <v>5857952.312796851</v>
+        <v>4518451.182610464</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B8">
-        <v>5772953.210870688</v>
+        <v>4398956.244914739</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B9">
-        <v>5363570.429021265</v>
+        <v>4282678.906631011</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B10">
-        <v>4345512.913914872</v>
+        <v>4188008.690650884</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B11">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B12">
-        <v>6041152.733666961</v>
+        <v>4446407.057416398</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B13">
-        <v>5352706.861359474</v>
+        <v>4229286.658069011</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B14">
-        <v>4340207.53594774</v>
+        <v>3929375.800333011</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B15">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B16">
-        <v>5224030.537801768</v>
+        <v>4447474.095516765</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B17">
-        <v>4188132.461862295</v>
+        <v>4406449.542255664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18">
+        <v>3325034.685785423</v>
       </c>
     </row>
   </sheetData>
@@ -3029,36 +3256,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>19.78565086669546</v>
       </c>
       <c r="C2">
-        <v>19.78565202973348</v>
+        <v>19.7856518672066</v>
       </c>
       <c r="D2">
         <v>58.14923187271204</v>
@@ -3067,21 +3294,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520467629768</v>
+        <v>1150.520458178954</v>
       </c>
       <c r="G2">
-        <v>5.878189364778443E-06</v>
+        <v>5.056751197073231E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B3">
         <v>51.44269156552292</v>
       </c>
       <c r="C3">
-        <v>51.44269156418788</v>
+        <v>51.44269155378192</v>
       </c>
       <c r="D3">
         <v>58.14923187271204</v>
@@ -3090,21 +3317,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352999922368</v>
+        <v>2991.35299931727</v>
       </c>
       <c r="G3">
-        <v>-2.595209953092273E-09</v>
+        <v>-2.282345791591783E-08</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B4">
         <v>39.57130173339092</v>
       </c>
       <c r="C4">
-        <v>39.57130173236396</v>
+        <v>39.57130172435938</v>
       </c>
       <c r="D4">
         <v>58.14923187271204</v>
@@ -3113,10 +3340,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799940283</v>
+        <v>2301.040799474823</v>
       </c>
       <c r="G4">
-        <v>-2.595218205779217E-09</v>
+        <v>-2.282345484826214E-08</v>
       </c>
     </row>
   </sheetData>

--- a/examples/wangetal2018/out/ResultFiles/PL_0.2_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_0.2_a.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="246">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -399,9 +399,18 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
     <t>PI01</t>
   </si>
   <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
     <t>PI02_pre_loop_cxn</t>
   </si>
   <si>
@@ -411,12 +420,27 @@
     <t>PI02_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
     <t>PI03</t>
   </si>
   <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
     <t>PI04</t>
   </si>
   <si>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
     <t>PI05_pre_loop_cxn</t>
   </si>
   <si>
@@ -426,9 +450,21 @@
     <t>PI05_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
     <t>PI06</t>
   </si>
   <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
     <t>PI07_pre_loop_cxn</t>
   </si>
   <si>
@@ -438,55 +474,211 @@
     <t>PI07_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09_pre_loop_cxn</t>
+    <t>PI09_0_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_3_loop</t>
   </si>
   <si>
-    <t>PI09_post_loop_cxn</t>
+    <t>PI09_0_post_loop_cxn</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
+    <t>PI09</t>
+  </si>
+  <si>
+    <t>PS_0_loop_0</t>
+  </si>
+  <si>
+    <t>PS_0_loop_1</t>
+  </si>
+  <si>
+    <t>PS_0_loop_2</t>
+  </si>
+  <si>
+    <t>PS_1_loop_0</t>
+  </si>
+  <si>
+    <t>PS_1_loop_1</t>
+  </si>
+  <si>
+    <t>PS_1_loop_2</t>
+  </si>
+  <si>
+    <t>PS_1_loop_3</t>
+  </si>
+  <si>
+    <t>PS_1_loop_4</t>
+  </si>
+  <si>
+    <t>PS_2_loop_0</t>
+  </si>
+  <si>
+    <t>PS_2_loop_1</t>
+  </si>
+  <si>
+    <t>PS_2_loop_2</t>
+  </si>
+  <si>
+    <t>PS_2_loop_3</t>
+  </si>
+  <si>
+    <t>PS_2_loop_4</t>
+  </si>
+  <si>
+    <t>PS_3_loop_0</t>
+  </si>
+  <si>
+    <t>PS_3_loop_1</t>
+  </si>
+  <si>
+    <t>PS_3_loop_2</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
+    <t>N01_2</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_0</t>
   </si>
   <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N03_C_4</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
+    <t>N06_C_4</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_2</t>
   </si>
   <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N09</t>
   </si>
   <si>
+    <t>N08_C_2</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_3</t>
+  </si>
+  <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
+    <t>N01_0_</t>
+  </si>
+  <si>
+    <t>N01_1_</t>
+  </si>
+  <si>
+    <t>N03_C_0_</t>
+  </si>
+  <si>
+    <t>N03_C_1</t>
+  </si>
+  <si>
+    <t>N03_C_2</t>
+  </si>
+  <si>
+    <t>N03_C_3</t>
+  </si>
+  <si>
+    <t>N06_C_0_</t>
+  </si>
+  <si>
+    <t>N06_C_1_</t>
+  </si>
+  <si>
+    <t>N06_C_2</t>
+  </si>
+  <si>
+    <t>N06_C_3</t>
+  </si>
+  <si>
+    <t>N08_C_0_</t>
+  </si>
+  <si>
+    <t>N08_C_1_</t>
   </si>
   <si>
     <t>N03</t>
@@ -1192,7 +1384,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.3479200756567323</v>
+        <v>0.3512481604389547</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1203,7 +1395,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.1491082371063936</v>
+        <v>0.1507507941620643</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -1225,7 +1417,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03073762260129964</v>
+        <v>0.03073975439209453</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1247,7 +1439,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006351728117517583</v>
+        <v>0.006352168638103972</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1258,7 +1450,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.02793793441703857</v>
+        <v>0.02793987203700974</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1280,7 +1472,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.03138110736875317</v>
+        <v>0.03155867271788311</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -1291,7 +1483,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.03693978983200192</v>
+        <v>0.037930431478405</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1335,7 +1527,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.00700561195340843</v>
+        <v>0.007062388973025978</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1346,7 +1538,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.05748691593938964</v>
+        <v>0.05793161954280411</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1357,7 +1549,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.000971128320929773</v>
+        <v>0.0009824584975639697</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1423,7 +1615,7 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>337.5975027262625</v>
+        <v>341.7710889719591</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -1434,7 +1626,7 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>209.7732978665205</v>
+        <v>212.3666433255952</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -1464,7 +1656,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>2102.182256856597</v>
+        <v>2158.558032177539</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1475,7 +1667,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>87.59092736902488</v>
+        <v>89.93991800739747</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1497,7 +1689,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>246178971.1791994</v>
+        <v>248873586.3974032</v>
       </c>
       <c r="C30" t="s">
         <v>78</v>
@@ -1582,7 +1774,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1627,7 +1819,7 @@
         <v>700</v>
       </c>
       <c r="B47">
-        <v>66.8708206701382</v>
+        <v>67.39230554059057</v>
       </c>
       <c r="C47" t="s">
         <v>93</v>
@@ -1636,16 +1828,16 @@
         <v>94</v>
       </c>
       <c r="E47">
-        <v>20195272.59283173</v>
+        <v>20352763.24430397</v>
       </c>
       <c r="F47">
-        <v>17443986.94438897</v>
+        <v>17568528.41908193</v>
       </c>
       <c r="G47">
-        <v>7576670.372483029</v>
+        <v>7631237.111005352</v>
       </c>
       <c r="H47">
-        <v>1266677.929279039</v>
+        <v>1276628.471699173</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1653,7 +1845,7 @@
         <v>800</v>
       </c>
       <c r="B48">
-        <v>125.9227254975962</v>
+        <v>126.4650154192097</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
@@ -1662,16 +1854,16 @@
         <v>95</v>
       </c>
       <c r="E48">
-        <v>52206186.01007509</v>
+        <v>52431013.48587239</v>
       </c>
       <c r="F48">
-        <v>36602868.61380249</v>
+        <v>36747202.83303315</v>
       </c>
       <c r="G48">
-        <v>15902021.48242655</v>
+        <v>15965274.5870763</v>
       </c>
       <c r="H48">
-        <v>2637100.323676525</v>
+        <v>2648540.27144924</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1679,7 +1871,7 @@
         <v>650</v>
       </c>
       <c r="B49">
-        <v>87.53571122460042</v>
+        <v>88.68129877643639</v>
       </c>
       <c r="C49" t="s">
         <v>93</v>
@@ -1688,16 +1880,16 @@
         <v>94</v>
       </c>
       <c r="E49">
-        <v>24526581.90354004</v>
+        <v>24847563.43810127</v>
       </c>
       <c r="F49">
-        <v>20408924.58575348</v>
+        <v>20653397.26314475</v>
       </c>
       <c r="G49">
-        <v>8907284.081675047</v>
+        <v>9014917.209815202</v>
       </c>
       <c r="H49">
-        <v>1575401.883425926</v>
+        <v>1596171.008932578</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1705,7 +1897,7 @@
         <v>650</v>
       </c>
       <c r="B50">
-        <v>57.26824533392769</v>
+        <v>59.23246923572248</v>
       </c>
       <c r="C50" t="s">
         <v>93</v>
@@ -1714,16 +1906,16 @@
         <v>94</v>
       </c>
       <c r="E50">
-        <v>16045957.58696326</v>
+        <v>16596312.38194118</v>
       </c>
       <c r="F50">
-        <v>13837656.35485853</v>
+        <v>14271691.79894571</v>
       </c>
       <c r="G50">
-        <v>6018901.52776124</v>
+        <v>6209362.724130611</v>
       </c>
       <c r="H50">
-        <v>1027478.986258462</v>
+        <v>1062982.148870448</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1762,7 +1954,7 @@
         <v>105</v>
       </c>
       <c r="B56">
-        <v>3.061518067571573</v>
+        <v>3.129503291805409</v>
       </c>
       <c r="C56">
         <v>12.5</v>
@@ -1777,7 +1969,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G56">
-        <v>29.26132267507258</v>
+        <v>29.91111063631803</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1788,7 +1980,7 @@
         <v>106</v>
       </c>
       <c r="B57">
-        <v>2.397457502760974</v>
+        <v>2.461387802510778</v>
       </c>
       <c r="C57">
         <v>12.5</v>
@@ -1803,7 +1995,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G57">
-        <v>22.91437647588619</v>
+        <v>23.52540835236208</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1814,7 +2006,7 @@
         <v>107</v>
       </c>
       <c r="B58">
-        <v>3.705381409472157</v>
+        <v>3.819233220061554</v>
       </c>
       <c r="C58">
         <v>12.5</v>
@@ -1829,7 +2021,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G58">
-        <v>35.41522821806612</v>
+        <v>36.50339901871735</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1842,7 +2034,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1912,16 +2104,16 @@
         <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F2">
-        <v>49.79542398988663</v>
+        <v>49.80045256885964</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -1939,25 +2131,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>24.85484</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
         <v>4719848.27318464</v>
       </c>
       <c r="O2">
-        <v>4457409.981229763</v>
+        <v>4632080.861326042</v>
       </c>
       <c r="P2">
-        <v>5.824729036239187</v>
+        <v>5.631680188855301</v>
       </c>
       <c r="Q2">
-        <v>0.01188201222172833</v>
+        <v>0.01134739076276237</v>
       </c>
       <c r="R2">
-        <v>23.71411452614107</v>
+        <v>23.51721928339019</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1968,16 +2160,16 @@
         <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F3">
-        <v>49.79542242360598</v>
+        <v>49.80045200019968</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -1995,25 +2187,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L3">
-        <v>26.8708206701382</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M3">
-        <v>16.69674871062444</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N3">
-        <v>4457409.981229763</v>
+        <v>4632080.861326042</v>
       </c>
       <c r="O3">
-        <v>4271878.152297823</v>
+        <v>4542539.136391623</v>
       </c>
       <c r="P3">
-        <v>6.082542248406922</v>
+        <v>5.646423872422695</v>
       </c>
       <c r="Q3">
-        <v>0.01242216835655878</v>
+        <v>0.01138080686320488</v>
       </c>
       <c r="R3">
-        <v>24.23324653198549</v>
+        <v>23.75779665207115</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2024,52 +2216,52 @@
         <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="F4">
-        <v>61.44605116325074</v>
+        <v>49.80045123095544</v>
       </c>
       <c r="G4">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I4">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K4">
-        <v>4.732210080904904</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L4">
-        <v>66.8708206701382</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M4">
-        <v>41.55158871062444</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N4">
-        <v>4719848.27318464</v>
+        <v>4542539.136391623</v>
       </c>
       <c r="O4">
-        <v>4271878.152297823</v>
+        <v>4451122.412064647</v>
       </c>
       <c r="P4">
-        <v>6.385177673738397</v>
+        <v>5.661282201265906</v>
       </c>
       <c r="Q4">
-        <v>0.01304023035277607</v>
+        <v>0.0114147045375248</v>
       </c>
       <c r="R4">
-        <v>24.23324653198549</v>
+        <v>24.01046365138078</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2080,16 +2272,16 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F5">
-        <v>111.2417201758497</v>
+        <v>49.80045025124485</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -2107,45 +2299,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L5">
-        <v>3.129179329861799</v>
+        <v>15</v>
       </c>
       <c r="M5">
-        <v>1.944381289375556</v>
+        <v>9.320565</v>
       </c>
       <c r="N5">
-        <v>4271878.152297823</v>
+        <v>4451122.412064647</v>
       </c>
       <c r="O5">
-        <v>4164397.90710475</v>
+        <v>4345883.818289354</v>
       </c>
       <c r="P5">
-        <v>13.9450560331118</v>
+        <v>5.678136752043811</v>
       </c>
       <c r="Q5">
-        <v>0.02849885847546065</v>
+        <v>0.0114530075962131</v>
       </c>
       <c r="R5">
-        <v>24.54929907683486</v>
+        <v>24.31156004131449</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F6">
-        <v>49.30779040696949</v>
+        <v>49.80044911936912</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2163,101 +2355,101 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L6">
-        <v>31.5</v>
+        <v>12.39230554059057</v>
       </c>
       <c r="M6">
-        <v>19.5731865</v>
+        <v>7.700219286062303</v>
       </c>
       <c r="N6">
-        <v>4719848.27318464</v>
+        <v>4345883.818289354</v>
       </c>
       <c r="O6">
-        <v>4518451.182610464</v>
+        <v>4256893.80991092</v>
       </c>
       <c r="P6">
-        <v>5.688160770263159</v>
+        <v>5.692173553366178</v>
       </c>
       <c r="Q6">
-        <v>0.01159912044193553</v>
+        <v>0.0114847650742396</v>
       </c>
       <c r="R6">
-        <v>23.5501693609618</v>
+        <v>24.57520457310179</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="F7">
-        <v>29.52213853976289</v>
+        <v>61.4522285120429</v>
       </c>
       <c r="G7">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I7">
-        <v>9.525</v>
+        <v>7.925</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>4.71984827318464</v>
+        <v>4.732210080904904</v>
       </c>
       <c r="L7">
-        <v>48.5</v>
+        <v>16.84807638514764</v>
       </c>
       <c r="M7">
-        <v>30.1364935</v>
+        <v>10.46890607151558</v>
       </c>
       <c r="N7">
-        <v>4518451.182610464</v>
+        <v>4377420.517440657</v>
       </c>
       <c r="O7">
-        <v>4398956.244914739</v>
+        <v>4256893.80991092</v>
       </c>
       <c r="P7">
-        <v>3.500050342778986</v>
+        <v>5.98135784807749</v>
       </c>
       <c r="Q7">
-        <v>0.007142397977698663</v>
+        <v>0.01206328165014171</v>
       </c>
       <c r="R7">
-        <v>23.87421629112815</v>
+        <v>24.57520457310179</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F8">
-        <v>29.52213853764475</v>
+        <v>111.2524972461526</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2275,25 +2467,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L8">
-        <v>45.92272549759625</v>
+        <v>2.60769445940943</v>
       </c>
       <c r="M8">
-        <v>28.53504986516688</v>
+        <v>1.620345713937697</v>
       </c>
       <c r="N8">
-        <v>4398956.244914739</v>
+        <v>4256893.80991092</v>
       </c>
       <c r="O8">
-        <v>4282678.906631011</v>
+        <v>4164903.184665806</v>
       </c>
       <c r="P8">
-        <v>3.596856800803474</v>
+        <v>12.71902630422832</v>
       </c>
       <c r="Q8">
-        <v>0.007345241192897816</v>
+        <v>0.02567026905232139</v>
       </c>
       <c r="R8">
-        <v>24.20212792764721</v>
+        <v>24.85659105671332</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2304,19 +2496,19 @@
         <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="F9">
-        <v>61.78583689792924</v>
+        <v>49.32616649492468</v>
       </c>
       <c r="G9">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="H9" t="s">
         <v>86</v>
@@ -2325,31 +2517,31 @@
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K9">
-        <v>4.97665784139329</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L9">
-        <v>125.9227254975962</v>
+        <v>15.75</v>
       </c>
       <c r="M9">
-        <v>78.24472986516685</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N9">
         <v>4719848.27318464</v>
       </c>
       <c r="O9">
-        <v>4282678.906631011</v>
+        <v>4617918.299826453</v>
       </c>
       <c r="P9">
-        <v>4.914586685535901</v>
+        <v>5.581239697458432</v>
       </c>
       <c r="Q9">
-        <v>0.01003621399678786</v>
+        <v>0.01124628850518726</v>
       </c>
       <c r="R9">
-        <v>24.20212792764721</v>
+        <v>23.55491061347553</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2360,16 +2552,16 @@
         <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F10">
-        <v>91.30798249410809</v>
+        <v>49.32616648368915</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2387,45 +2579,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L10">
-        <v>4.077274502403753</v>
+        <v>15.75</v>
       </c>
       <c r="M10">
-        <v>2.533500134833123</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N10">
-        <v>4282678.906631011</v>
+        <v>4617918.299826453</v>
       </c>
       <c r="O10">
-        <v>4188008.690650884</v>
+        <v>4513582.416531305</v>
       </c>
       <c r="P10">
-        <v>11.38044778710803</v>
+        <v>5.598531302852868</v>
       </c>
       <c r="Q10">
-        <v>0.02325419597496713</v>
+        <v>0.01128553268074822</v>
       </c>
       <c r="R10">
-        <v>24.47885725914119</v>
+        <v>23.83696531925199</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F11">
-        <v>45.30090438680268</v>
+        <v>29.54051634178996</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -2443,45 +2635,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M11">
-        <v>31.06855</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N11">
-        <v>4719848.27318464</v>
+        <v>4513582.416531305</v>
       </c>
       <c r="O11">
-        <v>4446407.057416398</v>
+        <v>4473087.874202656</v>
       </c>
       <c r="P11">
-        <v>5.312310278010019</v>
+        <v>3.363584379169</v>
       </c>
       <c r="Q11">
-        <v>0.01083744418797339</v>
+        <v>0.006781359067146611</v>
       </c>
       <c r="R11">
-        <v>23.74401576361475</v>
+        <v>23.9490179854709</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F12">
-        <v>45.30090438674951</v>
+        <v>29.54051634028152</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -2499,101 +2691,101 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L12">
-        <v>37.53571122460042</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M12">
-        <v>23.32360241934119</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N12">
-        <v>4446407.057416398</v>
+        <v>4473087.874202656</v>
       </c>
       <c r="O12">
-        <v>4229286.658069011</v>
+        <v>4432208.077045103</v>
       </c>
       <c r="P12">
-        <v>5.590179978395009</v>
+        <v>3.374415375138559</v>
       </c>
       <c r="Q12">
-        <v>0.01141969057735685</v>
+        <v>0.006804223991878885</v>
       </c>
       <c r="R12">
-        <v>24.35708718095033</v>
+        <v>24.0637548641848</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="F13">
-        <v>45.89158172100197</v>
+        <v>29.54051633865546</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I13">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>5.096226240974513</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L13">
-        <v>87.53571122460042</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M13">
-        <v>54.39215241934119</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N13">
-        <v>4719848.27318464</v>
+        <v>4432208.077045103</v>
       </c>
       <c r="O13">
-        <v>4229286.658069011</v>
+        <v>4390931.815634323</v>
       </c>
       <c r="P13">
-        <v>5.606978842114998</v>
+        <v>3.385350135514977</v>
       </c>
       <c r="Q13">
-        <v>0.01145400750927583</v>
+        <v>0.00682729102838403</v>
       </c>
       <c r="R13">
-        <v>24.35708718095033</v>
+        <v>24.18129395962298</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F14">
-        <v>91.19248617503257</v>
+        <v>29.54051633687467</v>
       </c>
       <c r="G14">
         <v>650</v>
@@ -2611,45 +2803,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L14">
-        <v>12.46428877539958</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M14">
-        <v>7.744947580658813</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N14">
-        <v>4229286.658069011</v>
+        <v>4390931.815634323</v>
       </c>
       <c r="O14">
-        <v>3929375.800333011</v>
+        <v>4347951.476675231</v>
       </c>
       <c r="P14">
-        <v>12.12577856908632</v>
+        <v>3.396733465726052</v>
       </c>
       <c r="Q14">
-        <v>0.02481880500729614</v>
+        <v>0.006851285283058927</v>
       </c>
       <c r="R14">
-        <v>25.28373208241372</v>
+        <v>24.30553479675478</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F15">
-        <v>45.21227947767073</v>
+        <v>29.54051633492106</v>
       </c>
       <c r="G15">
         <v>650</v>
@@ -2667,45 +2859,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M15">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N15">
-        <v>4719848.27318464</v>
+        <v>4347951.476675231</v>
       </c>
       <c r="O15">
-        <v>4447474.095516765</v>
+        <v>4304523.714298707</v>
       </c>
       <c r="P15">
-        <v>5.300620447611549</v>
+        <v>3.408230697568436</v>
       </c>
       <c r="Q15">
-        <v>0.01081352571484221</v>
+        <v>0.006875498830093882</v>
       </c>
       <c r="R15">
-        <v>23.74111127673228</v>
+        <v>24.43303436947129</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F16">
-        <v>45.21227947767173</v>
+        <v>29.54051633304071</v>
       </c>
       <c r="G16">
         <v>650</v>
@@ -2723,101 +2915,101 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L16">
-        <v>7.268245333927688</v>
+        <v>13.13168208587632</v>
       </c>
       <c r="M16">
-        <v>4.516276871387981</v>
+        <v>8.159646429383056</v>
       </c>
       <c r="N16">
-        <v>4447474.095516765</v>
+        <v>4304523.714298707</v>
       </c>
       <c r="O16">
-        <v>4406449.542255664</v>
+        <v>4269982.47806799</v>
       </c>
       <c r="P16">
-        <v>5.350933388260515</v>
+        <v>3.417370845714078</v>
       </c>
       <c r="Q16">
-        <v>0.01091891026930112</v>
+        <v>0.006894732604129289</v>
       </c>
       <c r="R16">
-        <v>23.85351925096084</v>
+        <v>24.53588918073507</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F17">
-        <v>45.80171382123859</v>
+        <v>61.77602102633414</v>
       </c>
       <c r="G17">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I17">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J17" t="s">
         <v>93</v>
       </c>
       <c r="K17">
-        <v>5.096226240974513</v>
+        <v>4.97665784139329</v>
       </c>
       <c r="L17">
-        <v>57.26824533392769</v>
+        <v>21.07750256986828</v>
       </c>
       <c r="M17">
-        <v>35.58482687138798</v>
+        <v>13.09694884934163</v>
       </c>
       <c r="N17">
-        <v>4719848.27318464</v>
+        <v>4348331.862760491</v>
       </c>
       <c r="O17">
-        <v>4406449.542255664</v>
+        <v>4269982.47806799</v>
       </c>
       <c r="P17">
-        <v>5.367003057043978</v>
+        <v>4.668779572021514</v>
       </c>
       <c r="Q17">
-        <v>0.01095170142156793</v>
+        <v>0.009417017494801795</v>
       </c>
       <c r="R17">
-        <v>23.85351925096084</v>
+        <v>24.53588918073507</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F18">
-        <v>91.01399327814131</v>
+        <v>91.31653179966978</v>
       </c>
       <c r="G18">
         <v>650</v>
@@ -2835,25 +3027,1817 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L18">
-        <v>42.73175466607231</v>
+        <v>3.534984580790347</v>
       </c>
       <c r="M18">
-        <v>26.55227312861202</v>
+        <v>2.196536903950279</v>
       </c>
       <c r="N18">
-        <v>4406449.542255664</v>
+        <v>4269982.47806799</v>
       </c>
       <c r="O18">
-        <v>3325034.685785423</v>
+        <v>4185689.8270498</v>
       </c>
       <c r="P18">
-        <v>14.32297760174873</v>
+        <v>10.56727317965681</v>
       </c>
       <c r="Q18">
-        <v>0.02944247304905622</v>
+        <v>0.0213257998594088</v>
       </c>
       <c r="R18">
-        <v>27.5060648964374</v>
+        <v>24.79244655432678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19">
+        <v>45.30368658040931</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N19">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O19">
+        <v>4628484.089460839</v>
+      </c>
+      <c r="P19">
+        <v>5.127018089894882</v>
+      </c>
+      <c r="Q19">
+        <v>0.01033066086406308</v>
+      </c>
+      <c r="R19">
+        <v>23.52677435766904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20">
+        <v>45.30368658033715</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>4628484.089460839</v>
+      </c>
+      <c r="O20">
+        <v>4535194.666536158</v>
+      </c>
+      <c r="P20">
+        <v>5.143837354879634</v>
+      </c>
+      <c r="Q20">
+        <v>0.0103680991103418</v>
+      </c>
+      <c r="R20">
+        <v>23.77780199942861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21">
+        <v>45.30368658023681</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N21">
+        <v>4535194.666536158</v>
+      </c>
+      <c r="O21">
+        <v>4439864.674730641</v>
+      </c>
+      <c r="P21">
+        <v>5.160820811978183</v>
+      </c>
+      <c r="Q21">
+        <v>0.0104060679706978</v>
+      </c>
+      <c r="R21">
+        <v>24.04213965558273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22">
+        <v>45.30368658011653</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>4439864.674730641</v>
+      </c>
+      <c r="O22">
+        <v>4342354.050385995</v>
+      </c>
+      <c r="P22">
+        <v>5.177971134342744</v>
+      </c>
+      <c r="Q22">
+        <v>0.0104442832549335</v>
+      </c>
+      <c r="R22">
+        <v>24.32185629751854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23">
+        <v>45.30368657997295</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>4342354.050385995</v>
+      </c>
+      <c r="O23">
+        <v>4242505.93380993</v>
+      </c>
+      <c r="P23">
+        <v>5.195291056239836</v>
+      </c>
+      <c r="Q23">
+        <v>0.01048272470557146</v>
+      </c>
+      <c r="R23">
+        <v>24.61864131433181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24">
+        <v>45.30368657986275</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L24">
+        <v>5.34796544310305</v>
+      </c>
+      <c r="M24">
+        <v>3.323070635346385</v>
+      </c>
+      <c r="N24">
+        <v>4242505.93380993</v>
+      </c>
+      <c r="O24">
+        <v>4209943.080692026</v>
+      </c>
+      <c r="P24">
+        <v>5.200885035222336</v>
+      </c>
+      <c r="Q24">
+        <v>0.01049510361308458</v>
+      </c>
+      <c r="R24">
+        <v>24.7178047171096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25">
+        <v>45.8942839012841</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25">
+        <v>7.925</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L25">
+        <v>14.7802164627394</v>
+      </c>
+      <c r="M25">
+        <v>9.183997883668843</v>
+      </c>
+      <c r="N25">
+        <v>4299310.430776333</v>
+      </c>
+      <c r="O25">
+        <v>4209943.080692026</v>
+      </c>
+      <c r="P25">
+        <v>5.223246809144142</v>
+      </c>
+      <c r="Q25">
+        <v>0.01053715607193581</v>
+      </c>
+      <c r="R25">
+        <v>24.7178047171096</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26">
+        <v>91.1979704017764</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L26">
+        <v>11.31870122356362</v>
+      </c>
+      <c r="M26">
+        <v>7.03311269798695</v>
+      </c>
+      <c r="N26">
+        <v>4209943.080692026</v>
+      </c>
+      <c r="O26">
+        <v>3929872.760901785</v>
+      </c>
+      <c r="P26">
+        <v>10.48019616248475</v>
+      </c>
+      <c r="Q26">
+        <v>0.02116965364912204</v>
+      </c>
+      <c r="R26">
+        <v>25.61762172576389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" t="s">
+        <v>222</v>
+      </c>
+      <c r="F27">
+        <v>45.21228590071043</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M27">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N27">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O27">
+        <v>4628844.267287713</v>
+      </c>
+      <c r="P27">
+        <v>5.116674276614697</v>
+      </c>
+      <c r="Q27">
+        <v>0.01030980622969478</v>
+      </c>
+      <c r="R27">
+        <v>23.52581699546933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28">
+        <v>45.21228590071044</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M28">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N28">
+        <v>4628844.267287713</v>
+      </c>
+      <c r="O28">
+        <v>4535930.424971555</v>
+      </c>
+      <c r="P28">
+        <v>5.133459608592966</v>
+      </c>
+      <c r="Q28">
+        <v>0.01034715196548222</v>
+      </c>
+      <c r="R28">
+        <v>23.77579561439862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29">
+        <v>45.2122859007105</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M29">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N29">
+        <v>4535930.424971555</v>
+      </c>
+      <c r="O29">
+        <v>4440992.942386054</v>
+      </c>
+      <c r="P29">
+        <v>5.150408801440746</v>
+      </c>
+      <c r="Q29">
+        <v>0.01038503058438115</v>
+      </c>
+      <c r="R29">
+        <v>24.03895938415267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30">
+        <v>45.21228590071006</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30">
+        <v>9.525</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L30">
+        <v>9.232469235722483</v>
+      </c>
+      <c r="M30">
+        <v>5.736788641470115</v>
+      </c>
+      <c r="N30">
+        <v>4440992.942386054</v>
+      </c>
+      <c r="O30">
+        <v>4387481.400882572</v>
+      </c>
+      <c r="P30">
+        <v>5.159869276819989</v>
+      </c>
+      <c r="Q30">
+        <v>0.01040612084620381</v>
+      </c>
+      <c r="R30">
+        <v>24.19119761530941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31">
+        <v>45.80170739820716</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31">
+        <v>7.925</v>
+      </c>
+      <c r="J31" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L31">
+        <v>14.80811730893062</v>
+      </c>
+      <c r="M31">
+        <v>9.201334660367529</v>
+      </c>
+      <c r="N31">
+        <v>4472986.689005116</v>
+      </c>
+      <c r="O31">
+        <v>4387481.400882572</v>
+      </c>
+      <c r="P31">
+        <v>5.181992063541647</v>
+      </c>
+      <c r="Q31">
+        <v>0.01044747453880466</v>
+      </c>
+      <c r="R31">
+        <v>24.19119761530941</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32">
+        <v>91.01399329411809</v>
+      </c>
+      <c r="G32">
+        <v>650</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32">
+        <v>9.525</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L32">
+        <v>7.434197430944185</v>
+      </c>
+      <c r="M32">
+        <v>4.61939469186322</v>
+      </c>
+      <c r="N32">
+        <v>4387481.400882572</v>
+      </c>
+      <c r="O32">
+        <v>4214484.041954955</v>
+      </c>
+      <c r="P32">
+        <v>10.39384718455683</v>
+      </c>
+      <c r="Q32">
+        <v>0.02097391824234362</v>
+      </c>
+      <c r="R32">
+        <v>24.70390423383814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33">
+        <v>91.01399329431983</v>
+      </c>
+      <c r="G33">
+        <v>650</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>9.525</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L33">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M33">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N33">
+        <v>4214484.041954955</v>
+      </c>
+      <c r="O33">
+        <v>3796883.910486233</v>
+      </c>
+      <c r="P33">
+        <v>10.42855753062813</v>
+      </c>
+      <c r="Q33">
+        <v>0.0210741484188327</v>
+      </c>
+      <c r="R33">
+        <v>26.08046714528999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34">
+        <v>91.01399329267086</v>
+      </c>
+      <c r="G34">
+        <v>650</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34">
+        <v>9.525</v>
+      </c>
+      <c r="J34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L34">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M34">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N34">
+        <v>3796883.910486233</v>
+      </c>
+      <c r="O34">
+        <v>3325069.423048513</v>
+      </c>
+      <c r="P34">
+        <v>10.46361281216336</v>
+      </c>
+      <c r="Q34">
+        <v>0.02117816267788221</v>
+      </c>
+      <c r="R34">
+        <v>27.93575563225838</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35">
+        <v>61.45223251702697</v>
+      </c>
+      <c r="G35">
+        <v>700</v>
+      </c>
+      <c r="H35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35">
+        <v>7.925</v>
+      </c>
+      <c r="J35" t="s">
+        <v>93</v>
+      </c>
+      <c r="K35">
+        <v>4.732210080904904</v>
+      </c>
+      <c r="L35">
+        <v>16.84807638514764</v>
+      </c>
+      <c r="M35">
+        <v>10.46890607151558</v>
+      </c>
+      <c r="N35">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O35">
+        <v>4608653.421388762</v>
+      </c>
+      <c r="P35">
+        <v>6.008462634796626</v>
+      </c>
+      <c r="Q35">
+        <v>0.01210752110597399</v>
+      </c>
+      <c r="R35">
+        <v>23.57966584405098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36">
+        <v>61.45223156222148</v>
+      </c>
+      <c r="G36">
+        <v>700</v>
+      </c>
+      <c r="H36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36">
+        <v>7.925</v>
+      </c>
+      <c r="J36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36">
+        <v>4.732210080904904</v>
+      </c>
+      <c r="L36">
+        <v>16.84807638514764</v>
+      </c>
+      <c r="M36">
+        <v>10.46890607151558</v>
+      </c>
+      <c r="N36">
+        <v>4608653.421388762</v>
+      </c>
+      <c r="O36">
+        <v>4494584.847761829</v>
+      </c>
+      <c r="P36">
+        <v>6.008462322773053</v>
+      </c>
+      <c r="Q36">
+        <v>0.01210752047722214</v>
+      </c>
+      <c r="R36">
+        <v>23.8893373298205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" t="s">
+        <v>223</v>
+      </c>
+      <c r="F37">
+        <v>61.45223019807185</v>
+      </c>
+      <c r="G37">
+        <v>700</v>
+      </c>
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37">
+        <v>7.925</v>
+      </c>
+      <c r="J37" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37">
+        <v>4.732210080904904</v>
+      </c>
+      <c r="L37">
+        <v>16.84807638514764</v>
+      </c>
+      <c r="M37">
+        <v>10.46890607151558</v>
+      </c>
+      <c r="N37">
+        <v>4494584.847761829</v>
+      </c>
+      <c r="O37">
+        <v>4377420.517440657</v>
+      </c>
+      <c r="P37">
+        <v>5.994864853674247</v>
+      </c>
+      <c r="Q37">
+        <v>0.01208533528150276</v>
+      </c>
+      <c r="R37">
+        <v>24.22014478305588</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38">
+        <v>61.77602107919969</v>
+      </c>
+      <c r="G38">
+        <v>800</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38">
+        <v>9.525</v>
+      </c>
+      <c r="J38" t="s">
+        <v>93</v>
+      </c>
+      <c r="K38">
+        <v>4.97665784139329</v>
+      </c>
+      <c r="L38">
+        <v>21.07750256986828</v>
+      </c>
+      <c r="M38">
+        <v>13.09694884934163</v>
+      </c>
+      <c r="N38">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O38">
+        <v>4648021.746932267</v>
+      </c>
+      <c r="P38">
+        <v>4.696696631037867</v>
+      </c>
+      <c r="Q38">
+        <v>0.009462964751485935</v>
+      </c>
+      <c r="R38">
+        <v>23.47501091372152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F39">
+        <v>61.77602106869984</v>
+      </c>
+      <c r="G39">
+        <v>800</v>
+      </c>
+      <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39">
+        <v>9.525</v>
+      </c>
+      <c r="J39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K39">
+        <v>4.97665784139329</v>
+      </c>
+      <c r="L39">
+        <v>21.07750256986828</v>
+      </c>
+      <c r="M39">
+        <v>13.09694884934163</v>
+      </c>
+      <c r="N39">
+        <v>4648021.746932267</v>
+      </c>
+      <c r="O39">
+        <v>4575015.332174161</v>
+      </c>
+      <c r="P39">
+        <v>4.696696627751644</v>
+      </c>
+      <c r="Q39">
+        <v>0.009462964744864811</v>
+      </c>
+      <c r="R39">
+        <v>23.66993726104082</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40">
+        <v>61.77602106336698</v>
+      </c>
+      <c r="G40">
+        <v>800</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40">
+        <v>9.525</v>
+      </c>
+      <c r="J40" t="s">
+        <v>93</v>
+      </c>
+      <c r="K40">
+        <v>4.97665784139329</v>
+      </c>
+      <c r="L40">
+        <v>21.07750256986828</v>
+      </c>
+      <c r="M40">
+        <v>13.09694884934163</v>
+      </c>
+      <c r="N40">
+        <v>4575015.332174161</v>
+      </c>
+      <c r="O40">
+        <v>4500774.545216516</v>
+      </c>
+      <c r="P40">
+        <v>4.689693028980815</v>
+      </c>
+      <c r="Q40">
+        <v>0.009451242670920238</v>
+      </c>
+      <c r="R40">
+        <v>23.87223583495512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41">
+        <v>61.77602105272442</v>
+      </c>
+      <c r="G41">
+        <v>800</v>
+      </c>
+      <c r="H41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41">
+        <v>9.525</v>
+      </c>
+      <c r="J41" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41">
+        <v>4.97665784139329</v>
+      </c>
+      <c r="L41">
+        <v>21.07750256986828</v>
+      </c>
+      <c r="M41">
+        <v>13.09694884934163</v>
+      </c>
+      <c r="N41">
+        <v>4500774.545216516</v>
+      </c>
+      <c r="O41">
+        <v>4425236.867531042</v>
+      </c>
+      <c r="P41">
+        <v>4.682718956995273</v>
+      </c>
+      <c r="Q41">
+        <v>0.009439896179050014</v>
+      </c>
+      <c r="R41">
+        <v>24.0834859550283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42">
+        <v>61.77602104044549</v>
+      </c>
+      <c r="G42">
+        <v>800</v>
+      </c>
+      <c r="H42" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42">
+        <v>9.525</v>
+      </c>
+      <c r="J42" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42">
+        <v>4.97665784139329</v>
+      </c>
+      <c r="L42">
+        <v>21.07750256986828</v>
+      </c>
+      <c r="M42">
+        <v>13.09694884934163</v>
+      </c>
+      <c r="N42">
+        <v>4425236.867531042</v>
+      </c>
+      <c r="O42">
+        <v>4348331.862760491</v>
+      </c>
+      <c r="P42">
+        <v>4.675733910750106</v>
+      </c>
+      <c r="Q42">
+        <v>0.009428462873039892</v>
+      </c>
+      <c r="R42">
+        <v>24.30442682331263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43">
+        <v>45.89428390178557</v>
+      </c>
+      <c r="G43">
+        <v>650</v>
+      </c>
+      <c r="H43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43">
+        <v>7.925</v>
+      </c>
+      <c r="J43" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L43">
+        <v>14.7802164627394</v>
+      </c>
+      <c r="M43">
+        <v>9.183997883668843</v>
+      </c>
+      <c r="N43">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O43">
+        <v>4638919.741830491</v>
+      </c>
+      <c r="P43">
+        <v>5.285088314910635</v>
+      </c>
+      <c r="Q43">
+        <v>0.01064879095732504</v>
+      </c>
+      <c r="R43">
+        <v>23.49908338934402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44">
+        <v>45.89428390169908</v>
+      </c>
+      <c r="G44">
+        <v>650</v>
+      </c>
+      <c r="H44" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44">
+        <v>7.925</v>
+      </c>
+      <c r="J44" t="s">
+        <v>93</v>
+      </c>
+      <c r="K44">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L44">
+        <v>14.7802164627394</v>
+      </c>
+      <c r="M44">
+        <v>9.183997883668843</v>
+      </c>
+      <c r="N44">
+        <v>4638919.741830491</v>
+      </c>
+      <c r="O44">
+        <v>4556487.023523062</v>
+      </c>
+      <c r="P44">
+        <v>5.285088314859586</v>
+      </c>
+      <c r="Q44">
+        <v>0.01064879095722219</v>
+      </c>
+      <c r="R44">
+        <v>23.71994307958398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45">
+        <v>45.8942839016449</v>
+      </c>
+      <c r="G45">
+        <v>650</v>
+      </c>
+      <c r="H45" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45">
+        <v>7.925</v>
+      </c>
+      <c r="J45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K45">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L45">
+        <v>14.7802164627394</v>
+      </c>
+      <c r="M45">
+        <v>9.183997883668843</v>
+      </c>
+      <c r="N45">
+        <v>4556487.023523062</v>
+      </c>
+      <c r="O45">
+        <v>4472472.253541439</v>
+      </c>
+      <c r="P45">
+        <v>5.269466816463326</v>
+      </c>
+      <c r="Q45">
+        <v>0.01062044466515236</v>
+      </c>
+      <c r="R45">
+        <v>23.9507336875056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46">
+        <v>45.89428390154168</v>
+      </c>
+      <c r="G46">
+        <v>650</v>
+      </c>
+      <c r="H46" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46">
+        <v>7.925</v>
+      </c>
+      <c r="J46" t="s">
+        <v>93</v>
+      </c>
+      <c r="K46">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L46">
+        <v>14.7802164627394</v>
+      </c>
+      <c r="M46">
+        <v>9.183997883668843</v>
+      </c>
+      <c r="N46">
+        <v>4472472.253541439</v>
+      </c>
+      <c r="O46">
+        <v>4386781.550548963</v>
+      </c>
+      <c r="P46">
+        <v>5.253926086915841</v>
+      </c>
+      <c r="Q46">
+        <v>0.01059252193135505</v>
+      </c>
+      <c r="R46">
+        <v>24.19320786634427</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47">
+        <v>45.89428390142114</v>
+      </c>
+      <c r="G47">
+        <v>650</v>
+      </c>
+      <c r="H47" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47">
+        <v>7.925</v>
+      </c>
+      <c r="J47" t="s">
+        <v>93</v>
+      </c>
+      <c r="K47">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L47">
+        <v>14.7802164627394</v>
+      </c>
+      <c r="M47">
+        <v>9.183997883668843</v>
+      </c>
+      <c r="N47">
+        <v>4386781.550548963</v>
+      </c>
+      <c r="O47">
+        <v>4299310.430776333</v>
+      </c>
+      <c r="P47">
+        <v>5.23852005899178</v>
+      </c>
+      <c r="Q47">
+        <v>0.01056476544713571</v>
+      </c>
+      <c r="R47">
+        <v>24.44847531830741</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48">
+        <v>45.80170739820508</v>
+      </c>
+      <c r="G48">
+        <v>650</v>
+      </c>
+      <c r="H48" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48">
+        <v>7.925</v>
+      </c>
+      <c r="J48" t="s">
+        <v>93</v>
+      </c>
+      <c r="K48">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L48">
+        <v>14.80811730893062</v>
+      </c>
+      <c r="M48">
+        <v>9.201334660367529</v>
+      </c>
+      <c r="N48">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O48">
+        <v>4639084.815523075</v>
+      </c>
+      <c r="P48">
+        <v>5.21213341642157</v>
+      </c>
+      <c r="Q48">
+        <v>0.01050179014099923</v>
+      </c>
+      <c r="R48">
+        <v>23.49864615208572</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49">
+        <v>45.80170739820581</v>
+      </c>
+      <c r="G49">
+        <v>650</v>
+      </c>
+      <c r="H49" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49">
+        <v>7.925</v>
+      </c>
+      <c r="J49" t="s">
+        <v>93</v>
+      </c>
+      <c r="K49">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L49">
+        <v>14.80811730893062</v>
+      </c>
+      <c r="M49">
+        <v>9.201334660367529</v>
+      </c>
+      <c r="N49">
+        <v>4639084.815523075</v>
+      </c>
+      <c r="O49">
+        <v>4556823.415571409</v>
+      </c>
+      <c r="P49">
+        <v>5.212133416421876</v>
+      </c>
+      <c r="Q49">
+        <v>0.01050179014099985</v>
+      </c>
+      <c r="R49">
+        <v>23.71903236871781</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" t="s">
+        <v>223</v>
+      </c>
+      <c r="F50">
+        <v>45.80170739820571</v>
+      </c>
+      <c r="G50">
+        <v>650</v>
+      </c>
+      <c r="H50" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50">
+        <v>7.925</v>
+      </c>
+      <c r="J50" t="s">
+        <v>93</v>
+      </c>
+      <c r="K50">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L50">
+        <v>14.80811730893062</v>
+      </c>
+      <c r="M50">
+        <v>9.201334660367529</v>
+      </c>
+      <c r="N50">
+        <v>4556823.415571409</v>
+      </c>
+      <c r="O50">
+        <v>4472986.689005116</v>
+      </c>
+      <c r="P50">
+        <v>5.196998141191147</v>
+      </c>
+      <c r="Q50">
+        <v>0.01047437258330299</v>
+      </c>
+      <c r="R50">
+        <v>23.94929995791316</v>
       </c>
     </row>
   </sheetData>
@@ -2871,7 +4855,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2886,43 +4870,43 @@
         <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>98</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>104</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2930,13 +4914,13 @@
         <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2945,16 +4929,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.133380713964017</v>
+        <v>1.133243214527054</v>
       </c>
       <c r="I2">
-        <v>29.26132267507258</v>
+        <v>29.91111063631803</v>
       </c>
       <c r="J2">
-        <v>3.061518067571573</v>
+        <v>3.129503291805409</v>
       </c>
       <c r="K2">
-        <v>4105.55695897483</v>
+        <v>4196.72650437689</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2983,13 +4967,13 @@
         <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2998,16 +4982,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.126991040806818</v>
+        <v>1.127615391537822</v>
       </c>
       <c r="I3">
-        <v>22.91437647588619</v>
+        <v>23.52540835236208</v>
       </c>
       <c r="J3">
-        <v>2.397457502760974</v>
+        <v>2.461387802510778</v>
       </c>
       <c r="K3">
-        <v>3215.038460352521</v>
+        <v>3300.770270923003</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3036,31 +5020,31 @@
         <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G4">
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.201169985518982</v>
+        <v>1.201018088967741</v>
       </c>
       <c r="I4">
-        <v>35.41522821806612</v>
+        <v>36.50339901871735</v>
       </c>
       <c r="J4">
-        <v>3.705381409472157</v>
+        <v>3.819233220061554</v>
       </c>
       <c r="K4">
-        <v>4968.990577730351</v>
+        <v>5121.668132766945</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3091,7 +5075,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3099,15 +5083,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B2">
         <v>4719848.27318464</v>
@@ -3115,130 +5099,386 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B3">
-        <v>4457409.981229763</v>
+        <v>4632080.861326042</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B4">
-        <v>4271878.152297823</v>
+        <v>4542539.136391623</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B5">
-        <v>4164397.90710475</v>
+        <v>4451122.412064647</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="B6">
-        <v>4719848.27318464</v>
+        <v>4345883.818289354</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="B7">
-        <v>4518451.182610464</v>
+        <v>4256893.80991092</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="B8">
-        <v>4398956.244914739</v>
+        <v>4164903.184665806</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="B9">
-        <v>4282678.906631011</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B10">
-        <v>4188008.690650884</v>
+        <v>4617918.299826453</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="B11">
-        <v>4719848.27318464</v>
+        <v>4513582.416531305</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B12">
-        <v>4446407.057416398</v>
+        <v>4473087.874202656</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="B13">
-        <v>4229286.658069011</v>
+        <v>4432208.077045103</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="B14">
-        <v>3929375.800333011</v>
+        <v>4390931.815634323</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B15">
-        <v>4719848.27318464</v>
+        <v>4347951.476675231</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="B16">
-        <v>4447474.095516765</v>
+        <v>4304523.714298707</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="B17">
-        <v>4406449.542255664</v>
+        <v>4269982.47806799</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="B18">
-        <v>3325034.685785423</v>
+        <v>4185689.8270498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20">
+        <v>4628484.089460839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21">
+        <v>4535194.666536158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22">
+        <v>4439864.674730641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23">
+        <v>4342354.050385995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24">
+        <v>4242505.93380993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25">
+        <v>4209943.080692026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26">
+        <v>3929872.760901785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28">
+        <v>4628844.267287713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>4535930.424971555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30">
+        <v>4440992.942386054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31">
+        <v>4387481.400882572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32">
+        <v>4214484.041954955</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33">
+        <v>3796883.910486233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34">
+        <v>3325069.423048513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35">
+        <v>4608653.421388762</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36">
+        <v>4494584.847761829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37">
+        <v>4377420.517440657</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38">
+        <v>4648021.746932267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39">
+        <v>4575015.332174161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40">
+        <v>4500774.545216516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41">
+        <v>4425236.867531042</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42">
+        <v>4348331.862760491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43">
+        <v>4638919.741830491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44">
+        <v>4556487.023523062</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45">
+        <v>4472472.253541439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46">
+        <v>4386781.550548963</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47">
+        <v>4299310.430776333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48">
+        <v>4639084.815523075</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49">
+        <v>4556823.415571409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50">
+        <v>4472986.689005116</v>
       </c>
     </row>
   </sheetData>
@@ -3256,36 +5496,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="B2">
         <v>19.78565086669546</v>
       </c>
       <c r="C2">
-        <v>19.7856518672066</v>
+        <v>19.78565014189919</v>
       </c>
       <c r="D2">
         <v>58.14923187271204</v>
@@ -3294,21 +5534,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520458178954</v>
+        <v>1150.520357853654</v>
       </c>
       <c r="G2">
-        <v>5.056751197073231E-06</v>
+        <v>-3.663241965378243E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="B3">
         <v>51.44269156552292</v>
       </c>
       <c r="C3">
-        <v>51.44269155378192</v>
+        <v>51.44269156199427</v>
       </c>
       <c r="D3">
         <v>58.14923187271204</v>
@@ -3317,21 +5557,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.35299931727</v>
+        <v>2991.352999794812</v>
       </c>
       <c r="G3">
-        <v>-2.282345791591783E-08</v>
+        <v>-6.859375917074328E-09</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="B4">
         <v>39.57130173339092</v>
       </c>
       <c r="C4">
-        <v>39.57130172435938</v>
+        <v>39.57130173067657</v>
       </c>
       <c r="D4">
         <v>58.14923187271204</v>
@@ -3340,10 +5580,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799474823</v>
+        <v>2301.040799842163</v>
       </c>
       <c r="G4">
-        <v>-2.282345484826214E-08</v>
+        <v>-6.859375825351609E-09</v>
       </c>
     </row>
   </sheetData>
